--- a/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
+++ b/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
@@ -175,6 +175,11 @@
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="29" customWidth="1"/>
     <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="29" customWidth="1"/>
+    <col min="11" max="11" width="29" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -199,6 +204,21 @@
       <c r="H1" s="2">
         <v/>
       </c>
+      <c r="I1" s="2">
+        <v/>
+      </c>
+      <c r="J1" s="2">
+        <v/>
+      </c>
+      <c r="K1" s="2">
+        <v/>
+      </c>
+      <c r="L1" s="2">
+        <v/>
+      </c>
+      <c r="M1" s="2">
+        <v/>
+      </c>
     </row>
     <row r="2">
       <c r="B2" s="3" t="inlineStr">
@@ -224,6 +244,21 @@
       <c r="H2" s="2">
         <v/>
       </c>
+      <c r="I2" s="2">
+        <v/>
+      </c>
+      <c r="J2" s="2">
+        <v/>
+      </c>
+      <c r="K2" s="2">
+        <v/>
+      </c>
+      <c r="L2" s="2">
+        <v/>
+      </c>
+      <c r="M2" s="2">
+        <v/>
+      </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
@@ -249,6 +284,21 @@
       <c r="H3" s="2">
         <v/>
       </c>
+      <c r="I3" s="2">
+        <v/>
+      </c>
+      <c r="J3" s="2">
+        <v/>
+      </c>
+      <c r="K3" s="2">
+        <v/>
+      </c>
+      <c r="L3" s="2">
+        <v/>
+      </c>
+      <c r="M3" s="2">
+        <v/>
+      </c>
     </row>
     <row r="4">
       <c r="B4" s="2">
@@ -272,6 +322,21 @@
       <c r="H4" s="2">
         <v/>
       </c>
+      <c r="I4" s="2">
+        <v/>
+      </c>
+      <c r="J4" s="2">
+        <v/>
+      </c>
+      <c r="K4" s="2">
+        <v/>
+      </c>
+      <c r="L4" s="2">
+        <v/>
+      </c>
+      <c r="M4" s="2">
+        <v/>
+      </c>
     </row>
     <row r="5">
       <c r="B5" s="5" t="inlineStr">
@@ -297,6 +362,21 @@
       <c r="H5" s="5">
         <v/>
       </c>
+      <c r="I5" s="5">
+        <v/>
+      </c>
+      <c r="J5" s="5">
+        <v/>
+      </c>
+      <c r="K5" s="5">
+        <v/>
+      </c>
+      <c r="L5" s="5">
+        <v/>
+      </c>
+      <c r="M5" s="5">
+        <v/>
+      </c>
     </row>
     <row r="6">
       <c r="B6" s="6" t="inlineStr">
@@ -322,6 +402,21 @@
       <c r="H6" s="5">
         <v/>
       </c>
+      <c r="I6" s="5">
+        <v/>
+      </c>
+      <c r="J6" s="5">
+        <v/>
+      </c>
+      <c r="K6" s="5">
+        <v/>
+      </c>
+      <c r="L6" s="5">
+        <v/>
+      </c>
+      <c r="M6" s="5">
+        <v/>
+      </c>
     </row>
     <row r="7">
       <c r="B7" s="2">
@@ -345,6 +440,21 @@
       <c r="H7" s="2">
         <v/>
       </c>
+      <c r="I7" s="2">
+        <v/>
+      </c>
+      <c r="J7" s="2">
+        <v/>
+      </c>
+      <c r="K7" s="2">
+        <v/>
+      </c>
+      <c r="L7" s="2">
+        <v/>
+      </c>
+      <c r="M7" s="2">
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
@@ -357,25 +467,50 @@
       </c>
       <c r="D8" s="7" t="inlineStr">
         <is>
+          <t>12 ماهه منتهی به 1391/12</t>
+        </is>
+      </c>
+      <c r="E8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1392/12</t>
+        </is>
+      </c>
+      <c r="F8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1393/12</t>
+        </is>
+      </c>
+      <c r="G8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1394/12</t>
+        </is>
+      </c>
+      <c r="H8" s="7" t="inlineStr">
+        <is>
+          <t>12 ماهه منتهی به 1395/12</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="inlineStr">
+        <is>
           <t>12 ماهه منتهی به 1396/12</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="J8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1397/12</t>
         </is>
       </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="K8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1398/12</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="L8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1399/12</t>
         </is>
       </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="M8" s="7" t="inlineStr">
         <is>
           <t>12 ماهه منتهی به 1400/12</t>
         </is>
@@ -392,25 +527,50 @@
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
+          <t>1393-09-04 (10)</t>
+        </is>
+      </c>
+      <c r="E9" s="10" t="inlineStr">
+        <is>
+          <t>1394-02-22 (24)</t>
+        </is>
+      </c>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>1395-02-25 (18)</t>
+        </is>
+      </c>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>1396-02-28 (15)</t>
+        </is>
+      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>1397-02-27 (14)</t>
+        </is>
+      </c>
+      <c r="I9" s="10" t="inlineStr">
+        <is>
           <t>1398-03-12 (9)</t>
         </is>
       </c>
-      <c r="E9" s="10" t="inlineStr">
+      <c r="J9" s="10" t="inlineStr">
         <is>
           <t>1399-03-21 (10)</t>
         </is>
       </c>
-      <c r="F9" s="10" t="inlineStr">
+      <c r="K9" s="10" t="inlineStr">
         <is>
           <t>1400-02-31 (10)</t>
         </is>
       </c>
-      <c r="G9" s="10" t="inlineStr">
+      <c r="L9" s="10" t="inlineStr">
         <is>
           <t>1401-02-31 (11)</t>
         </is>
       </c>
-      <c r="H9" s="10" t="inlineStr">
+      <c r="M9" s="10" t="inlineStr">
         <is>
           <t>1401-07-30 (5)</t>
         </is>
@@ -438,6 +598,21 @@
       <c r="H10" s="12">
         <v/>
       </c>
+      <c r="I10" s="12">
+        <v/>
+      </c>
+      <c r="J10" s="12">
+        <v/>
+      </c>
+      <c r="K10" s="12">
+        <v/>
+      </c>
+      <c r="L10" s="12">
+        <v/>
+      </c>
+      <c r="M10" s="12">
+        <v/>
+      </c>
     </row>
     <row r="11">
       <c r="B11" s="13" t="inlineStr">
@@ -449,18 +624,33 @@
         <v/>
       </c>
       <c r="D11" s="14">
+        <v>60564</v>
+      </c>
+      <c r="E11" s="14">
+        <v>74847</v>
+      </c>
+      <c r="F11" s="14">
+        <v>84772</v>
+      </c>
+      <c r="G11" s="14">
+        <v>68535</v>
+      </c>
+      <c r="H11" s="14">
+        <v>62209</v>
+      </c>
+      <c r="I11" s="14">
         <v>62467</v>
       </c>
-      <c r="E11" s="14">
+      <c r="J11" s="14">
         <v>27799</v>
       </c>
-      <c r="F11" s="14">
+      <c r="K11" s="14">
         <v>40364</v>
       </c>
-      <c r="G11" s="14">
+      <c r="L11" s="14">
         <v>35753</v>
       </c>
-      <c r="H11" s="14">
+      <c r="M11" s="14">
         <v>48603</v>
       </c>
     </row>
@@ -474,18 +664,33 @@
         <v/>
       </c>
       <c r="D12" s="12">
+        <v>-40410</v>
+      </c>
+      <c r="E12" s="12">
+        <v>-49258</v>
+      </c>
+      <c r="F12" s="12">
+        <v>-59034</v>
+      </c>
+      <c r="G12" s="12">
+        <v>-49607</v>
+      </c>
+      <c r="H12" s="12">
+        <v>-49153</v>
+      </c>
+      <c r="I12" s="12">
         <v>-45264</v>
       </c>
-      <c r="E12" s="12">
+      <c r="J12" s="12">
         <v>-16505</v>
       </c>
-      <c r="F12" s="12">
+      <c r="K12" s="12">
         <v>-24050</v>
       </c>
-      <c r="G12" s="12">
+      <c r="L12" s="12">
         <v>-16762</v>
       </c>
-      <c r="H12" s="12">
+      <c r="M12" s="12">
         <v>-23531</v>
       </c>
     </row>
@@ -499,18 +704,33 @@
         <v/>
       </c>
       <c r="D13" s="16">
+        <v>20154</v>
+      </c>
+      <c r="E13" s="16">
+        <v>25589</v>
+      </c>
+      <c r="F13" s="16">
+        <v>25738</v>
+      </c>
+      <c r="G13" s="16">
+        <v>18929</v>
+      </c>
+      <c r="H13" s="16">
+        <v>13056</v>
+      </c>
+      <c r="I13" s="16">
         <v>17203</v>
       </c>
-      <c r="E13" s="16">
+      <c r="J13" s="16">
         <v>11293</v>
       </c>
-      <c r="F13" s="16">
+      <c r="K13" s="16">
         <v>16314</v>
       </c>
-      <c r="G13" s="16">
+      <c r="L13" s="16">
         <v>18991</v>
       </c>
-      <c r="H13" s="16">
+      <c r="M13" s="16">
         <v>25072</v>
       </c>
     </row>
@@ -524,18 +744,33 @@
         <v/>
       </c>
       <c r="D14" s="12">
+        <v>-1208</v>
+      </c>
+      <c r="E14" s="12">
+        <v>-1554</v>
+      </c>
+      <c r="F14" s="12">
+        <v>-4823</v>
+      </c>
+      <c r="G14" s="12">
+        <v>-6563</v>
+      </c>
+      <c r="H14" s="12">
+        <v>-7118</v>
+      </c>
+      <c r="I14" s="12">
         <v>-6688</v>
       </c>
-      <c r="E14" s="12">
+      <c r="J14" s="12">
         <v>-2699</v>
       </c>
-      <c r="F14" s="12">
+      <c r="K14" s="12">
         <v>-7554</v>
       </c>
-      <c r="G14" s="12">
+      <c r="L14" s="12">
         <v>-4558</v>
       </c>
-      <c r="H14" s="12">
+      <c r="M14" s="12">
         <v>-6744</v>
       </c>
     </row>
@@ -573,6 +808,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M15" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="B16" s="11" t="inlineStr">
@@ -583,21 +843,44 @@
       <c r="C16" s="12">
         <v/>
       </c>
-      <c r="D16" s="12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E16" s="12">
+      <c r="D16" s="12">
+        <v>-18</v>
+      </c>
+      <c r="E16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I16" s="12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J16" s="12">
         <v>409</v>
       </c>
-      <c r="F16" s="12">
+      <c r="K16" s="12">
         <v>572</v>
       </c>
-      <c r="G16" s="12">
+      <c r="L16" s="12">
         <v>1281</v>
       </c>
-      <c r="H16" s="12">
+      <c r="M16" s="12">
         <v>629</v>
       </c>
     </row>
@@ -611,18 +894,33 @@
         <v/>
       </c>
       <c r="D17" s="16">
+        <v>18927</v>
+      </c>
+      <c r="E17" s="16">
+        <v>24036</v>
+      </c>
+      <c r="F17" s="16">
+        <v>20915</v>
+      </c>
+      <c r="G17" s="16">
+        <v>12366</v>
+      </c>
+      <c r="H17" s="16">
+        <v>5939</v>
+      </c>
+      <c r="I17" s="16">
         <v>10515</v>
       </c>
-      <c r="E17" s="16">
+      <c r="J17" s="16">
         <v>9003</v>
       </c>
-      <c r="F17" s="16">
+      <c r="K17" s="16">
         <v>9332</v>
       </c>
-      <c r="G17" s="16">
+      <c r="L17" s="16">
         <v>15714</v>
       </c>
-      <c r="H17" s="16">
+      <c r="M17" s="16">
         <v>18957</v>
       </c>
     </row>
@@ -636,18 +934,33 @@
         <v/>
       </c>
       <c r="D18" s="12">
+        <v>-4839</v>
+      </c>
+      <c r="E18" s="12">
+        <v>-4385</v>
+      </c>
+      <c r="F18" s="12">
+        <v>-3206</v>
+      </c>
+      <c r="G18" s="12">
+        <v>-2767</v>
+      </c>
+      <c r="H18" s="12">
+        <v>-2272</v>
+      </c>
+      <c r="I18" s="12">
         <v>-3157</v>
       </c>
-      <c r="E18" s="12">
+      <c r="J18" s="12">
         <v>-2265</v>
       </c>
-      <c r="F18" s="12">
+      <c r="K18" s="12">
         <v>-1050</v>
       </c>
-      <c r="G18" s="12">
+      <c r="L18" s="12">
         <v>-233</v>
       </c>
-      <c r="H18" s="12">
+      <c r="M18" s="12">
         <v>-17</v>
       </c>
     </row>
@@ -661,18 +974,33 @@
         <v/>
       </c>
       <c r="D19" s="14">
+        <v>1053</v>
+      </c>
+      <c r="E19" s="14">
+        <v>112</v>
+      </c>
+      <c r="F19" s="14">
+        <v>2363</v>
+      </c>
+      <c r="G19" s="14">
+        <v>3556</v>
+      </c>
+      <c r="H19" s="14">
+        <v>1803</v>
+      </c>
+      <c r="I19" s="14">
         <v>206</v>
       </c>
-      <c r="E19" s="14">
+      <c r="J19" s="14">
         <v>458</v>
       </c>
-      <c r="F19" s="14">
+      <c r="K19" s="14">
         <v>193</v>
       </c>
-      <c r="G19" s="14">
+      <c r="L19" s="14">
         <v>1580</v>
       </c>
-      <c r="H19" s="14">
+      <c r="M19" s="14">
         <v>1304</v>
       </c>
     </row>
@@ -686,18 +1014,33 @@
         <v/>
       </c>
       <c r="D20" s="18">
+        <v>15141</v>
+      </c>
+      <c r="E20" s="18">
+        <v>19763</v>
+      </c>
+      <c r="F20" s="18">
+        <v>20073</v>
+      </c>
+      <c r="G20" s="18">
+        <v>13155</v>
+      </c>
+      <c r="H20" s="18">
+        <v>5470</v>
+      </c>
+      <c r="I20" s="18">
         <v>7565</v>
       </c>
-      <c r="E20" s="18">
+      <c r="J20" s="18">
         <v>7197</v>
       </c>
-      <c r="F20" s="18">
+      <c r="K20" s="18">
         <v>8475</v>
       </c>
-      <c r="G20" s="18">
+      <c r="L20" s="18">
         <v>17061</v>
       </c>
-      <c r="H20" s="18">
+      <c r="M20" s="18">
         <v>20243</v>
       </c>
     </row>
@@ -711,18 +1054,33 @@
         <v/>
       </c>
       <c r="D21" s="14">
+        <v>-1056</v>
+      </c>
+      <c r="E21" s="14">
+        <v>-932</v>
+      </c>
+      <c r="F21" s="14">
+        <v>-1378</v>
+      </c>
+      <c r="G21" s="14">
+        <v>-993</v>
+      </c>
+      <c r="H21" s="14">
+        <v>-568</v>
+      </c>
+      <c r="I21" s="14">
         <v>-821</v>
       </c>
-      <c r="E21" s="14">
+      <c r="J21" s="14">
         <v>-330</v>
       </c>
-      <c r="F21" s="14">
+      <c r="K21" s="14">
         <v>-457</v>
       </c>
-      <c r="G21" s="14">
+      <c r="L21" s="14">
         <v>-770</v>
       </c>
-      <c r="H21" s="14">
+      <c r="M21" s="14">
         <v>-422</v>
       </c>
     </row>
@@ -736,18 +1094,33 @@
         <v/>
       </c>
       <c r="D22" s="18">
+        <v>14085</v>
+      </c>
+      <c r="E22" s="18">
+        <v>18830</v>
+      </c>
+      <c r="F22" s="18">
+        <v>18695</v>
+      </c>
+      <c r="G22" s="18">
+        <v>12162</v>
+      </c>
+      <c r="H22" s="18">
+        <v>4902</v>
+      </c>
+      <c r="I22" s="18">
         <v>6743</v>
       </c>
-      <c r="E22" s="18">
+      <c r="J22" s="18">
         <v>6867</v>
       </c>
-      <c r="F22" s="18">
+      <c r="K22" s="18">
         <v>8017</v>
       </c>
-      <c r="G22" s="18">
+      <c r="L22" s="18">
         <v>16290</v>
       </c>
-      <c r="H22" s="18">
+      <c r="M22" s="18">
         <v>19821</v>
       </c>
     </row>
@@ -785,6 +1158,31 @@
           <t>-</t>
         </is>
       </c>
+      <c r="I23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="M23" s="14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" s="17" t="inlineStr">
@@ -796,18 +1194,33 @@
         <v/>
       </c>
       <c r="D24" s="18">
+        <v>14085</v>
+      </c>
+      <c r="E24" s="18">
+        <v>18830</v>
+      </c>
+      <c r="F24" s="18">
+        <v>18695</v>
+      </c>
+      <c r="G24" s="18">
+        <v>12162</v>
+      </c>
+      <c r="H24" s="18">
+        <v>4902</v>
+      </c>
+      <c r="I24" s="18">
         <v>6743</v>
       </c>
-      <c r="E24" s="18">
+      <c r="J24" s="18">
         <v>6867</v>
       </c>
-      <c r="F24" s="18">
+      <c r="K24" s="18">
         <v>8017</v>
       </c>
-      <c r="G24" s="18">
+      <c r="L24" s="18">
         <v>16290</v>
       </c>
-      <c r="H24" s="18">
+      <c r="M24" s="18">
         <v>19821</v>
       </c>
     </row>
@@ -835,6 +1248,21 @@
       <c r="H25" s="14">
         <v>0</v>
       </c>
+      <c r="I25" s="14">
+        <v>0</v>
+      </c>
+      <c r="J25" s="14">
+        <v>0</v>
+      </c>
+      <c r="K25" s="14">
+        <v>0</v>
+      </c>
+      <c r="L25" s="14">
+        <v>0</v>
+      </c>
+      <c r="M25" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="B26" s="11" t="inlineStr">
@@ -846,18 +1274,33 @@
         <v/>
       </c>
       <c r="D26" s="12">
+        <v>24712</v>
+      </c>
+      <c r="E26" s="12">
+        <v>20494</v>
+      </c>
+      <c r="F26" s="12">
+        <v>19895</v>
+      </c>
+      <c r="G26" s="12">
+        <v>19357</v>
+      </c>
+      <c r="H26" s="12">
+        <v>17906</v>
+      </c>
+      <c r="I26" s="12">
         <v>16010</v>
       </c>
-      <c r="E26" s="12">
+      <c r="J26" s="12">
         <v>6426</v>
       </c>
-      <c r="F26" s="12">
+      <c r="K26" s="12">
         <v>10913</v>
       </c>
-      <c r="G26" s="12">
+      <c r="L26" s="12">
         <v>6192</v>
       </c>
-      <c r="H26" s="12">
+      <c r="M26" s="12">
         <v>5306</v>
       </c>
     </row>
@@ -885,6 +1328,21 @@
       <c r="H27" s="14">
         <v>0</v>
       </c>
+      <c r="I27" s="14">
+        <v>0</v>
+      </c>
+      <c r="J27" s="14">
+        <v>0</v>
+      </c>
+      <c r="K27" s="14">
+        <v>0</v>
+      </c>
+      <c r="L27" s="14">
+        <v>0</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="B28" s="2">
@@ -906,6 +1364,21 @@
         <v/>
       </c>
       <c r="H28" s="2">
+        <v/>
+      </c>
+      <c r="I28" s="2">
+        <v/>
+      </c>
+      <c r="J28" s="2">
+        <v/>
+      </c>
+      <c r="K28" s="2">
+        <v/>
+      </c>
+      <c r="L28" s="2">
+        <v/>
+      </c>
+      <c r="M28" s="2">
         <v/>
       </c>
     </row>

--- a/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
+++ b/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD5BADC9-0ACD-4108-9839-BE5026D23637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>سخوز-سیمان خوزستان</t>
@@ -37,21 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1391/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1392/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1393/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1394/12</t>
-  </si>
-  <si>
-    <t>12 ماهه منتهی به 1395/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1396/12</t>
   </si>
   <si>
@@ -70,21 +54,6 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1393-09-04 (10)</t>
-  </si>
-  <si>
-    <t>1394-02-22 (24)</t>
-  </si>
-  <si>
-    <t>1395-02-25 (18)</t>
-  </si>
-  <si>
-    <t>1396-02-28 (15)</t>
-  </si>
-  <si>
-    <t>1397-02-27 (14)</t>
-  </si>
-  <si>
     <t>1398-03-12 (9)</t>
   </si>
   <si>
@@ -97,7 +66,7 @@
     <t>1401-02-31 (11)</t>
   </si>
   <si>
-    <t>1401-07-30 (5)</t>
+    <t>1401-09-14 (7)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -157,7 +126,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +307,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -350,7 +319,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -397,23 +366,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,23 +401,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,19 +552,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="13" width="29" customWidth="1"/>
+    <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -637,13 +572,8 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -653,13 +583,8 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -669,13 +594,8 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -683,13 +603,8 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,13 +614,8 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,13 +625,8 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -729,13 +634,8 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -755,59 +655,29 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="6" t="s">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="8" t="s">
         <v>10</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -815,519 +685,304 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>60564</v>
+        <v>62467</v>
       </c>
       <c r="E11" s="13">
-        <v>74847</v>
+        <v>27799</v>
       </c>
       <c r="F11" s="13">
-        <v>84772</v>
+        <v>40364</v>
       </c>
       <c r="G11" s="13">
-        <v>68535</v>
+        <v>35753</v>
       </c>
       <c r="H11" s="13">
-        <v>62209</v>
-      </c>
-      <c r="I11" s="13">
-        <v>62467</v>
-      </c>
-      <c r="J11" s="13">
-        <v>27799</v>
-      </c>
-      <c r="K11" s="13">
-        <v>40364</v>
-      </c>
-      <c r="L11" s="13">
-        <v>35753</v>
-      </c>
-      <c r="M11" s="13">
         <v>48603</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-40410</v>
+        <v>-45264</v>
       </c>
       <c r="E12" s="11">
-        <v>-49258</v>
+        <v>-16505</v>
       </c>
       <c r="F12" s="11">
-        <v>-59034</v>
+        <v>-24050</v>
       </c>
       <c r="G12" s="11">
-        <v>-49607</v>
+        <v>-16762</v>
       </c>
       <c r="H12" s="11">
-        <v>-49153</v>
-      </c>
-      <c r="I12" s="11">
-        <v>-45264</v>
-      </c>
-      <c r="J12" s="11">
-        <v>-16505</v>
-      </c>
-      <c r="K12" s="11">
-        <v>-24050</v>
-      </c>
-      <c r="L12" s="11">
-        <v>-16762</v>
-      </c>
-      <c r="M12" s="11">
         <v>-23531</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>20154</v>
+        <v>17203</v>
       </c>
       <c r="E13" s="15">
-        <v>25589</v>
+        <v>11293</v>
       </c>
       <c r="F13" s="15">
-        <v>25738</v>
+        <v>16314</v>
       </c>
       <c r="G13" s="15">
-        <v>18929</v>
+        <v>18991</v>
       </c>
       <c r="H13" s="15">
-        <v>13056</v>
-      </c>
-      <c r="I13" s="15">
-        <v>17203</v>
-      </c>
-      <c r="J13" s="15">
-        <v>11293</v>
-      </c>
-      <c r="K13" s="15">
-        <v>16314</v>
-      </c>
-      <c r="L13" s="15">
-        <v>18991</v>
-      </c>
-      <c r="M13" s="15">
         <v>25072</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-1208</v>
+        <v>-6688</v>
       </c>
       <c r="E14" s="11">
-        <v>-1554</v>
+        <v>-2699</v>
       </c>
       <c r="F14" s="11">
-        <v>-4823</v>
+        <v>-7554</v>
       </c>
       <c r="G14" s="11">
-        <v>-6563</v>
+        <v>-4558</v>
       </c>
       <c r="H14" s="11">
-        <v>-7118</v>
-      </c>
-      <c r="I14" s="11">
-        <v>-6688</v>
-      </c>
-      <c r="J14" s="11">
-        <v>-2699</v>
-      </c>
-      <c r="K14" s="11">
-        <v>-7554</v>
-      </c>
-      <c r="L14" s="11">
-        <v>-4558</v>
-      </c>
-      <c r="M14" s="11">
         <v>-6744</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11">
-        <v>-18</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="11">
+      <c r="D16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="11">
         <v>409</v>
       </c>
-      <c r="K16" s="11">
+      <c r="F16" s="11">
         <v>572</v>
       </c>
-      <c r="L16" s="11">
+      <c r="G16" s="11">
         <v>1281</v>
       </c>
-      <c r="M16" s="11">
+      <c r="H16" s="11">
         <v>629</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>18927</v>
+        <v>10515</v>
       </c>
       <c r="E17" s="15">
-        <v>24036</v>
+        <v>9003</v>
       </c>
       <c r="F17" s="15">
-        <v>20915</v>
+        <v>9332</v>
       </c>
       <c r="G17" s="15">
-        <v>12366</v>
+        <v>15714</v>
       </c>
       <c r="H17" s="15">
-        <v>5939</v>
-      </c>
-      <c r="I17" s="15">
-        <v>10515</v>
-      </c>
-      <c r="J17" s="15">
-        <v>9003</v>
-      </c>
-      <c r="K17" s="15">
-        <v>9332</v>
-      </c>
-      <c r="L17" s="15">
-        <v>15714</v>
-      </c>
-      <c r="M17" s="15">
         <v>18957</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-4839</v>
+        <v>-3157</v>
       </c>
       <c r="E18" s="11">
-        <v>-4385</v>
+        <v>-2265</v>
       </c>
       <c r="F18" s="11">
-        <v>-3206</v>
+        <v>-1050</v>
       </c>
       <c r="G18" s="11">
-        <v>-2767</v>
+        <v>-233</v>
       </c>
       <c r="H18" s="11">
-        <v>-2272</v>
-      </c>
-      <c r="I18" s="11">
-        <v>-3157</v>
-      </c>
-      <c r="J18" s="11">
-        <v>-2265</v>
-      </c>
-      <c r="K18" s="11">
-        <v>-1050</v>
-      </c>
-      <c r="L18" s="11">
-        <v>-233</v>
-      </c>
-      <c r="M18" s="11">
         <v>-17</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>1053</v>
+        <v>206</v>
       </c>
       <c r="E19" s="13">
-        <v>112</v>
+        <v>458</v>
       </c>
       <c r="F19" s="13">
-        <v>2363</v>
+        <v>193</v>
       </c>
       <c r="G19" s="13">
-        <v>3556</v>
+        <v>1580</v>
       </c>
       <c r="H19" s="13">
-        <v>1803</v>
-      </c>
-      <c r="I19" s="13">
-        <v>206</v>
-      </c>
-      <c r="J19" s="13">
-        <v>458</v>
-      </c>
-      <c r="K19" s="13">
-        <v>193</v>
-      </c>
-      <c r="L19" s="13">
-        <v>1580</v>
-      </c>
-      <c r="M19" s="13">
         <v>1304</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>15141</v>
+        <v>7565</v>
       </c>
       <c r="E20" s="17">
-        <v>19763</v>
+        <v>7197</v>
       </c>
       <c r="F20" s="17">
-        <v>20073</v>
+        <v>8475</v>
       </c>
       <c r="G20" s="17">
-        <v>13155</v>
+        <v>17061</v>
       </c>
       <c r="H20" s="17">
-        <v>5470</v>
-      </c>
-      <c r="I20" s="17">
-        <v>7565</v>
-      </c>
-      <c r="J20" s="17">
-        <v>7197</v>
-      </c>
-      <c r="K20" s="17">
-        <v>8475</v>
-      </c>
-      <c r="L20" s="17">
-        <v>17061</v>
-      </c>
-      <c r="M20" s="17">
         <v>20243</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1056</v>
+        <v>-821</v>
       </c>
       <c r="E21" s="13">
-        <v>-932</v>
+        <v>-330</v>
       </c>
       <c r="F21" s="13">
-        <v>-1378</v>
+        <v>-457</v>
       </c>
       <c r="G21" s="13">
-        <v>-993</v>
+        <v>-770</v>
       </c>
       <c r="H21" s="13">
-        <v>-568</v>
-      </c>
-      <c r="I21" s="13">
-        <v>-821</v>
-      </c>
-      <c r="J21" s="13">
-        <v>-330</v>
-      </c>
-      <c r="K21" s="13">
-        <v>-457</v>
-      </c>
-      <c r="L21" s="13">
-        <v>-770</v>
-      </c>
-      <c r="M21" s="13">
         <v>-422</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>14085</v>
+        <v>6743</v>
       </c>
       <c r="E22" s="17">
-        <v>18830</v>
+        <v>6867</v>
       </c>
       <c r="F22" s="17">
-        <v>18695</v>
+        <v>8017</v>
       </c>
       <c r="G22" s="17">
-        <v>12162</v>
+        <v>16290</v>
       </c>
       <c r="H22" s="17">
-        <v>4902</v>
-      </c>
-      <c r="I22" s="17">
-        <v>6743</v>
-      </c>
-      <c r="J22" s="17">
-        <v>6867</v>
-      </c>
-      <c r="K22" s="17">
-        <v>8017</v>
-      </c>
-      <c r="L22" s="17">
-        <v>16290</v>
-      </c>
-      <c r="M22" s="17">
         <v>19821</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>14085</v>
+        <v>6743</v>
       </c>
       <c r="E24" s="17">
-        <v>18830</v>
+        <v>6867</v>
       </c>
       <c r="F24" s="17">
-        <v>18695</v>
+        <v>8017</v>
       </c>
       <c r="G24" s="17">
-        <v>12162</v>
+        <v>16290</v>
       </c>
       <c r="H24" s="17">
-        <v>4902</v>
-      </c>
-      <c r="I24" s="17">
-        <v>6743</v>
-      </c>
-      <c r="J24" s="17">
-        <v>6867</v>
-      </c>
-      <c r="K24" s="17">
-        <v>8017</v>
-      </c>
-      <c r="L24" s="17">
-        <v>16290</v>
-      </c>
-      <c r="M24" s="17">
         <v>19821</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1345,61 +1000,31 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>24712</v>
+        <v>16010</v>
       </c>
       <c r="E26" s="11">
-        <v>20494</v>
+        <v>6426</v>
       </c>
       <c r="F26" s="11">
-        <v>19895</v>
+        <v>10913</v>
       </c>
       <c r="G26" s="11">
-        <v>19357</v>
+        <v>6192</v>
       </c>
       <c r="H26" s="11">
-        <v>17906</v>
-      </c>
-      <c r="I26" s="11">
-        <v>16010</v>
-      </c>
-      <c r="J26" s="11">
-        <v>6426</v>
-      </c>
-      <c r="K26" s="11">
-        <v>10913</v>
-      </c>
-      <c r="L26" s="11">
-        <v>6192</v>
-      </c>
-      <c r="M26" s="11">
         <v>5306</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1417,23 +1042,8 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-      <c r="I27" s="13">
-        <v>0</v>
-      </c>
-      <c r="J27" s="13">
-        <v>0</v>
-      </c>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1441,11 +1051,6 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
+++ b/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\sekhouz\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE444C-888B-4C23-A5C5-A4A7FAE87117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -66,7 +67,7 @@
     <t>1401-02-31 (11)</t>
   </si>
   <si>
-    <t>1401-09-14 (7)</t>
+    <t>1401-10-28 (8)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,7 +587,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
+++ b/database/industries/siman/sekhouz/income/yearly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\income\yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\sekhouz\income\yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AE444C-888B-4C23-A5C5-A4A7FAE87117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F910B88-5CB5-4EFA-9F5E-8329EADD833B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>12 ماهه منتهی به 1396/12</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1397/12</t>
   </si>
   <si>
@@ -52,12 +49,12 @@
     <t>12 ماهه منتهی به 1400/12</t>
   </si>
   <si>
+    <t>12 ماهه منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1398-03-12 (9)</t>
-  </si>
-  <si>
     <t>1399-03-21 (10)</t>
   </si>
   <si>
@@ -67,7 +64,10 @@
     <t>1401-02-31 (11)</t>
   </si>
   <si>
-    <t>1401-10-28 (8)</t>
+    <t>1402-02-25 (10)</t>
+  </si>
+  <si>
+    <t>1402-02-25 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -592,14 +592,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -608,7 +608,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -619,7 +619,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -630,7 +630,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -639,7 +639,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -650,7 +650,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -670,7 +670,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -691,7 +691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -721,91 +721,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>62467</v>
+        <v>27799</v>
       </c>
       <c r="E11" s="13">
-        <v>27799</v>
+        <v>40364</v>
       </c>
       <c r="F11" s="13">
-        <v>40364</v>
+        <v>35753</v>
       </c>
       <c r="G11" s="13">
-        <v>35753</v>
+        <v>48603</v>
       </c>
       <c r="H11" s="13">
-        <v>48603</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>56612</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-45264</v>
+        <v>-16505</v>
       </c>
       <c r="E12" s="11">
-        <v>-16505</v>
+        <v>-24050</v>
       </c>
       <c r="F12" s="11">
-        <v>-24050</v>
+        <v>-16762</v>
       </c>
       <c r="G12" s="11">
-        <v>-16762</v>
+        <v>-23531</v>
       </c>
       <c r="H12" s="11">
-        <v>-23531</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-26760</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>17203</v>
+        <v>11293</v>
       </c>
       <c r="E13" s="15">
-        <v>11293</v>
+        <v>16314</v>
       </c>
       <c r="F13" s="15">
-        <v>16314</v>
+        <v>18991</v>
       </c>
       <c r="G13" s="15">
-        <v>18991</v>
+        <v>25072</v>
       </c>
       <c r="H13" s="15">
-        <v>25072</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29852</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-6688</v>
+        <v>-2699</v>
       </c>
       <c r="E14" s="11">
-        <v>-2699</v>
+        <v>-7554</v>
       </c>
       <c r="F14" s="11">
-        <v>-7554</v>
+        <v>-4558</v>
       </c>
       <c r="G14" s="11">
-        <v>-4558</v>
+        <v>-6744</v>
       </c>
       <c r="H14" s="11">
-        <v>-6744</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-7422</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -826,154 +826,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>21</v>
+      <c r="D16" s="11">
+        <v>409</v>
       </c>
       <c r="E16" s="11">
-        <v>409</v>
+        <v>572</v>
       </c>
       <c r="F16" s="11">
-        <v>572</v>
+        <v>1281</v>
       </c>
       <c r="G16" s="11">
-        <v>1281</v>
+        <v>629</v>
       </c>
       <c r="H16" s="11">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>4920</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>10515</v>
+        <v>9003</v>
       </c>
       <c r="E17" s="15">
-        <v>9003</v>
+        <v>9332</v>
       </c>
       <c r="F17" s="15">
-        <v>9332</v>
+        <v>15714</v>
       </c>
       <c r="G17" s="15">
-        <v>15714</v>
+        <v>18957</v>
       </c>
       <c r="H17" s="15">
-        <v>18957</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>27349</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-3157</v>
+        <v>-2265</v>
       </c>
       <c r="E18" s="11">
-        <v>-2265</v>
+        <v>-1050</v>
       </c>
       <c r="F18" s="11">
-        <v>-1050</v>
+        <v>-233</v>
       </c>
       <c r="G18" s="11">
-        <v>-233</v>
+        <v>-17</v>
       </c>
       <c r="H18" s="11">
-        <v>-17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>206</v>
+        <v>458</v>
       </c>
       <c r="E19" s="13">
-        <v>458</v>
+        <v>193</v>
       </c>
       <c r="F19" s="13">
-        <v>193</v>
+        <v>1580</v>
       </c>
       <c r="G19" s="13">
-        <v>1580</v>
+        <v>1304</v>
       </c>
       <c r="H19" s="13">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>2391</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>7565</v>
+        <v>7197</v>
       </c>
       <c r="E20" s="17">
-        <v>7197</v>
+        <v>8475</v>
       </c>
       <c r="F20" s="17">
-        <v>8475</v>
+        <v>17061</v>
       </c>
       <c r="G20" s="17">
-        <v>17061</v>
+        <v>20243</v>
       </c>
       <c r="H20" s="17">
-        <v>20243</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>29688</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-821</v>
+        <v>-330</v>
       </c>
       <c r="E21" s="13">
-        <v>-330</v>
+        <v>-457</v>
       </c>
       <c r="F21" s="13">
-        <v>-457</v>
+        <v>-770</v>
       </c>
       <c r="G21" s="13">
-        <v>-770</v>
+        <v>-422</v>
       </c>
       <c r="H21" s="13">
-        <v>-422</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>6743</v>
+        <v>6867</v>
       </c>
       <c r="E22" s="17">
-        <v>6867</v>
+        <v>8017</v>
       </c>
       <c r="F22" s="17">
-        <v>8017</v>
+        <v>16290</v>
       </c>
       <c r="G22" s="17">
-        <v>16290</v>
+        <v>19821</v>
       </c>
       <c r="H22" s="17">
-        <v>19821</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -994,28 +994,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>6743</v>
+        <v>6867</v>
       </c>
       <c r="E24" s="17">
-        <v>6867</v>
+        <v>8017</v>
       </c>
       <c r="F24" s="17">
-        <v>8017</v>
+        <v>16290</v>
       </c>
       <c r="G24" s="17">
-        <v>16290</v>
+        <v>19821</v>
       </c>
       <c r="H24" s="17">
-        <v>19821</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>28523</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1036,28 +1036,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>16010</v>
+        <v>6426</v>
       </c>
       <c r="E26" s="11">
-        <v>6426</v>
+        <v>10913</v>
       </c>
       <c r="F26" s="11">
-        <v>10913</v>
+        <v>6192</v>
       </c>
       <c r="G26" s="11">
-        <v>6192</v>
+        <v>5306</v>
       </c>
       <c r="H26" s="11">
-        <v>5306</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>3967</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
